--- a/problema 5.xlsx
+++ b/problema 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evele\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C50FE1-F15E-44CC-AF46-D07C85C9F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE94AC-0C25-4E2A-AA0A-49D94D35DA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B4D2A99-E509-4288-B996-46970B0EEFF9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Tratamiento,PorcentajeDefectuoso</t>
   </si>
@@ -99,18 +99,6 @@
   </si>
   <si>
     <t>Sin tratamiento,12.3</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Porcentaje de producto defectuoso</t>
-  </si>
-  <si>
-    <t>Con tratam.</t>
-  </si>
-  <si>
-    <t>Sin tratam.</t>
   </si>
 </sst>
 </file>
@@ -120,18 +108,13 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,11 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -494,240 +474,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4BCA23-7DA5-43CE-AC31-6DCD6BA93513}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>5.3</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>2.6</v>
-      </c>
-      <c r="H4">
-        <v>2.1</v>
-      </c>
-      <c r="I4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L4">
-        <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O4">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>13.2</v>
-      </c>
-      <c r="E5">
-        <v>7.2</v>
-      </c>
-      <c r="F5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G5">
-        <v>9.1</v>
-      </c>
-      <c r="H5">
-        <v>6.7</v>
-      </c>
-      <c r="I5">
-        <v>12.6</v>
-      </c>
-      <c r="J5">
-        <v>16.3</v>
-      </c>
-      <c r="K5">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L5">
-        <v>6.4</v>
-      </c>
-      <c r="M5">
-        <v>7.2</v>
-      </c>
-      <c r="N5">
-        <v>17.2</v>
-      </c>
-      <c r="O5">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
